--- a/biology/Zoologie/Fecenia/Fecenia.xlsx
+++ b/biology/Zoologie/Fecenia/Fecenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fecenia est un genre d'araignées aranéomorphes de la famille des Psechridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fecenia est un genre d'araignées aranéomorphes de la famille des Psechridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, dans le Sud de l'Asie du Sud, dans le Sud de l'Asie de l'Est et dans l'Ouest de l'Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, dans le Sud de l'Asie du Sud, dans le Sud de l'Asie de l'Est et dans l'Ouest de l'Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 02/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 02/02/2024) :
 Fecenia cylindrata Thorell, 1895
 Fecenia macilenta (Simon, 1886)
 Fecenia ochracea (Doleschall, 1859)
@@ -576,9 +592,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mezentia[2] Thorell 1881, préoccupé par Mezentia Stål, 1878, a été remplacé par Fecenia par Simon en 1887[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mezentia Thorell 1881, préoccupé par Mezentia Stål, 1878, a été remplacé par Fecenia par Simon en 1887.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1887 : « Observation sur divers arachnides: synonymies et descriptions. 5. » Annales de la Société Entomologique de France, sér. 6, vol. 7, p. 193-195 (texte intégral).
 Thorell, 1881 : « Studi sui Ragni Malesi e Papuani. III. Ragni dell'Austro Malesia e del Capo York, conservati nel Museo civico di storia naturale di Genova. » Annali del Museo Civico di Storia Naturale di Genova, vol. 17, p. 1-727 (texte intégral).</t>
